--- a/src/main/resources/doc/天津医院指标分析-中压.xlsx
+++ b/src/main/resources/doc/天津医院指标分析-中压.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="860" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="10" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="189">
   <si>
     <t>功能</t>
   </si>
@@ -217,11 +217,6 @@
   </si>
   <si>
     <t>季度、年度电压状况分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">以ASSETYPE,PRODUCTMODEL,LOCATION,PRODUCTMODELC分组，计算电源电压的平均值(AB线电压、BC线电压、CA线电压)；8h取一个平均值，一天3个点，一季度270个点左右，一年1100个点左右
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -979,6 +974,32 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以ASSETYPE,PRODUCTMODEL,LOCATION,PRODUCTMODELC分组，计算电源电压的平均值(AB线电压、BC线电压、CA线电压)；8h取一个平均值，一天3个点，一季度270个点左右，一年1100个点左右
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_TOTAL_LOAD_COMPARE_QUARTER</t>
+  </si>
+  <si>
+    <t>RE_TOTAL_LOAD_COMPARE_YEAR</t>
+  </si>
+  <si>
+    <t>5 6 1 1 * 
+5 6 1 4 * 
+5 6 1 7 * 
+5 6 1 10 *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 7 1 1 *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_VOLTAGE_CONDITION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1116,7 +1137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1197,6 +1218,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1216,6 +1240,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1541,15 +1568,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <f>一、健康状况!E18</f>
@@ -1558,7 +1585,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <f>二、1负荷率!E18</f>
@@ -1567,7 +1594,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <f>二、2电压状况!E5</f>
@@ -1576,7 +1603,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <f>二、3平均功率因数!E5</f>
@@ -1585,7 +1612,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <f>二、4电度量状况!E16</f>
@@ -1594,7 +1621,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <f>二、5温度统计!E5</f>
@@ -1603,7 +1630,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <f>三、使用效率!E18</f>
@@ -1612,7 +1639,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <f>四、报警分析!E12</f>
@@ -1669,94 +1696,94 @@
         <v>12</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>163</v>
+      <c r="B2" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="18">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="29">
+        <v>117</v>
+      </c>
+      <c r="E3" s="30">
         <v>0.5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="29">
+        <v>119</v>
+      </c>
+      <c r="E5" s="30">
         <v>0.2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1766,16 +1793,16 @@
       <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1789,73 +1816,73 @@
         <v>0.2</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="18">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="69.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="32">
+        <v>126</v>
+      </c>
+      <c r="E9" s="33">
         <v>0.5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>136</v>
+      <c r="E10" s="33"/>
+      <c r="F10" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1868,13 +1895,13 @@
       <c r="E11" s="19">
         <v>0.2</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -1882,18 +1909,18 @@
       <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="33">
         <v>0.5</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1903,16 +1930,16 @@
       <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1920,20 +1947,20 @@
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E14" s="19">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="136" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1941,20 +1968,20 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" s="19">
         <v>0.5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1971,7 +1998,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
@@ -2037,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2049,7 +2076,7 @@
     <col min="4" max="4" width="87.1796875" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.1796875" style="10" customWidth="1"/>
     <col min="6" max="6" width="20.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.08984375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2077,11 +2104,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>171</v>
+      <c r="A2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -2090,55 +2117,55 @@
         <v>31</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="74.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="30">
         <v>0.5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2146,18 +2173,18 @@
       <c r="D5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="30">
         <v>0.2</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2165,18 +2192,18 @@
         <v>10</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="29"/>
+        <v>164</v>
+      </c>
+      <c r="E6" s="30"/>
       <c r="F6" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
@@ -2186,18 +2213,18 @@
       <c r="D7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="30">
         <v>0.3</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -2205,73 +2232,73 @@
       <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>141</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>142</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="10" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="30">
         <v>0.5</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2281,13 +2308,18 @@
       <c r="D12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="30">
         <v>0.2</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2297,11 +2329,16 @@
       <c r="D13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="10" t="s">
         <v>37</v>
       </c>
@@ -2311,12 +2348,15 @@
       <c r="D14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="30">
         <v>0.3</v>
       </c>
+      <c r="G14" s="27" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
@@ -2326,10 +2366,13 @@
       <c r="D15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="G15" s="27" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="10" t="s">
         <v>46</v>
       </c>
@@ -2339,12 +2382,12 @@
       <c r="D16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="30">
         <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="10" t="s">
         <v>45</v>
       </c>
@@ -2354,7 +2397,7 @@
       <c r="D17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="8"/>
@@ -2376,28 +2419,28 @@
       <c r="A28" s="9"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
+      <c r="A48" s="34"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
+      <c r="A49" s="29"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
+      <c r="A50" s="29"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="A51" s="29"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
+      <c r="A52" s="29"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
+      <c r="A53" s="29"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
+      <c r="A54" s="29"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
+      <c r="A55" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2424,8 +2467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2464,47 +2507,52 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>143</v>
+      <c r="B2" s="31" t="s">
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="E2" s="15">
         <v>0.5</v>
       </c>
+      <c r="G2" s="35" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="15">
         <v>0.2</v>
       </c>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="15">
         <v>0.2</v>
       </c>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -2522,22 +2570,22 @@
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
-      <c r="E7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="E9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
-      <c r="E10" s="27"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="8"/>
@@ -2555,33 +2603,34 @@
       <c r="A21" s="9"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
+      <c r="A42" s="29"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
+      <c r="A43" s="29"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
+      <c r="A44" s="29"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
+      <c r="A45" s="29"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
+      <c r="A46" s="29"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
+      <c r="A47" s="29"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
+      <c r="A48" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="G2:G4"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="A41:A48"/>
     <mergeCell ref="B2:B4"/>
@@ -2599,7 +2648,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2638,43 +2687,43 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>144</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="18">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2">
         <v>0.2</v>
@@ -2696,22 +2745,22 @@
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="11"/>
-      <c r="E7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
-      <c r="E9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
-      <c r="E10" s="27"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="8"/>
@@ -2729,30 +2778,30 @@
       <c r="A21" s="9"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
+      <c r="A42" s="29"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
+      <c r="A43" s="29"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
+      <c r="A44" s="29"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
+      <c r="A45" s="29"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
+      <c r="A46" s="29"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
+      <c r="A47" s="29"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
+      <c r="A48" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2811,191 +2860,191 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>146</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="34">
+        <v>60</v>
+      </c>
+      <c r="E3" s="36">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="34"/>
+        <v>52</v>
+      </c>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="34">
+        <v>56</v>
+      </c>
+      <c r="E5" s="36">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="34"/>
+        <v>57</v>
+      </c>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2">
         <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="95.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>52</v>
+      <c r="A9" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2">
         <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="34">
+        <v>67</v>
+      </c>
+      <c r="E10" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="34">
+        <v>68</v>
+      </c>
+      <c r="E12" s="36">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="34"/>
+        <v>69</v>
+      </c>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" ht="90.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="15" spans="1:7" ht="90.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -3030,30 +3079,30 @@
       <c r="A28" s="9"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
+      <c r="A49" s="29"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
+      <c r="A50" s="29"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="A51" s="29"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
+      <c r="A52" s="29"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
+      <c r="A53" s="29"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
+      <c r="A54" s="29"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
+      <c r="A55" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3077,7 +3126,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3116,38 +3165,38 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" ht="73" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:7" ht="73" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -3175,12 +3224,12 @@
     <row r="9" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
-      <c r="E9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
-      <c r="E10" s="27"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="8"/>
@@ -3198,30 +3247,30 @@
       <c r="A21" s="9"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
+      <c r="A42" s="29"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
+      <c r="A43" s="29"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
+      <c r="A44" s="29"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
+      <c r="A45" s="29"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
+      <c r="A46" s="29"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
+      <c r="A47" s="29"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
+      <c r="A48" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3239,7 +3288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3279,224 +3328,224 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>91</v>
+      <c r="A2" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="30">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="29">
+        <v>93</v>
+      </c>
+      <c r="E5" s="30">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="E7" s="29">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" ht="85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>100</v>
       </c>
       <c r="E9" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>90</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="18">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="29">
+        <v>102</v>
+      </c>
+      <c r="E11" s="30">
         <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="29">
+        <v>103</v>
+      </c>
+      <c r="E13" s="30">
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="29"/>
+        <v>106</v>
+      </c>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="29">
+        <v>104</v>
+      </c>
+      <c r="E15" s="30">
         <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="29"/>
+        <v>105</v>
+      </c>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D17" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="18">
         <v>0.8</v>
@@ -3522,30 +3571,30 @@
       <c r="A28" s="9"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
+      <c r="A49" s="29"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
+      <c r="A50" s="29"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="A51" s="29"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
+      <c r="A52" s="29"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
+      <c r="A53" s="29"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
+      <c r="A54" s="29"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
+      <c r="A55" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3610,138 +3659,138 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>113</v>
+      <c r="A2" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="35">
+        <v>114</v>
+      </c>
+      <c r="E2" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="29"/>
+        <v>110</v>
+      </c>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="18">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="143.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D6" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="18">
         <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>113</v>
+      <c r="A7" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="35">
+        <v>115</v>
+      </c>
+      <c r="E7" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="29"/>
+        <v>115</v>
+      </c>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="29"/>
+        <v>115</v>
+      </c>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="18">
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="134.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="2">
         <v>0.7</v>
@@ -3767,30 +3816,30 @@
       <c r="A22" s="9"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
+      <c r="A43" s="29"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
+      <c r="A44" s="29"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
+      <c r="A45" s="29"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
+      <c r="A46" s="29"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
+      <c r="A47" s="29"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
+      <c r="A48" s="29"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
+      <c r="A49" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
